--- a/20150316-mpls_charter/builds/production/data/maindata.xlsx
+++ b/20150316-mpls_charter/builds/production/data/maindata.xlsx
@@ -13,7 +13,7 @@
     <sheet name="enrollmentPublic" sheetId="4" r:id="rId4"/>
     <sheet name="source" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="915">
   <si>
     <t>Type</t>
   </si>
@@ -2732,13 +2732,49 @@
   </si>
   <si>
     <t>Source: Minnesota Department of Education</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>enrollment</t>
+  </si>
+  <si>
+    <t>enrollmentMPLS</t>
+  </si>
+  <si>
+    <t>enrollmentCharter</t>
+  </si>
+  <si>
+    <t>enrollmentPublic</t>
+  </si>
+  <si>
+    <t>Minnesota Department of Education</t>
+  </si>
+  <si>
+    <t>Enrollment by Minneapolis school, 2010, 2015</t>
+  </si>
+  <si>
+    <t>Enrollment by metro area school, 2010-2015</t>
+  </si>
+  <si>
+    <t>Enrollment by metro area charter school, 2010, 2015</t>
+  </si>
+  <si>
+    <t>Enrollment by metro area public school, 2010-2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2750,6 +2786,24 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2770,17 +2824,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3112,7 +3179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N434"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -18528,7 +18597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -28539,26 +28610,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2015</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="5" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>906</v>
+      </c>
+      <c r="B7" t="s">
+        <v>912</v>
+      </c>
+      <c r="C7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>907</v>
+      </c>
+      <c r="B8" t="s">
+        <v>911</v>
+      </c>
+      <c r="C8" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B9" t="s">
+        <v>913</v>
+      </c>
+      <c r="C9" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>909</v>
+      </c>
+      <c r="B10" t="s">
+        <v>914</v>
+      </c>
+      <c r="C10" t="s">
+        <v>910</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/20150316-mpls_charter/builds/production/data/maindata.xlsx
+++ b/20150316-mpls_charter/builds/production/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="6320" yWindow="1980" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="enrollment" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="enrollmentCharter" sheetId="3" r:id="rId3"/>
     <sheet name="enrollmentPublic" sheetId="4" r:id="rId4"/>
     <sheet name="source" sheetId="5" r:id="rId5"/>
+    <sheet name="layout" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="933">
   <si>
     <t>Type</t>
   </si>
@@ -2768,6 +2769,60 @@
   </si>
   <si>
     <t>Enrollment by metro area public school, 2010-2015</t>
+  </si>
+  <si>
+    <t>Type of school (Minneapolis, Public, Charter)</t>
+  </si>
+  <si>
+    <t>District students migrate to</t>
+  </si>
+  <si>
+    <t>District students migrate from</t>
+  </si>
+  <si>
+    <t>Percent change since first year</t>
+  </si>
+  <si>
+    <t>Is the school new?</t>
+  </si>
+  <si>
+    <t>School's 2015 enrollment</t>
+  </si>
+  <si>
+    <t>School's 2014 enrollment</t>
+  </si>
+  <si>
+    <t>School's 2013 enrollment</t>
+  </si>
+  <si>
+    <t>School's 2012 enrollment</t>
+  </si>
+  <si>
+    <t>School's 2011 enrollment</t>
+  </si>
+  <si>
+    <t>School's 2010 enrollment</t>
+  </si>
+  <si>
+    <t>School's address</t>
+  </si>
+  <si>
+    <t>District name</t>
+  </si>
+  <si>
+    <t>School name</t>
+  </si>
+  <si>
+    <t>Percent change in open enrollees between 2015 and 2010</t>
+  </si>
+  <si>
+    <t>Latitude coordinate</t>
+  </si>
+  <si>
+    <t>Longitude coordinate</t>
+  </si>
+  <si>
+    <t>School's enrollment</t>
   </si>
 </sst>
 </file>
@@ -2824,8 +2879,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2841,13 +2930,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3177,15 +3300,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N434"/>
+  <dimension ref="A1:L434"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3222,14 +3345,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -3256,10 +3373,8 @@
       <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3296,10 +3411,8 @@
       <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3328,10 +3441,8 @@
       <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -3368,10 +3479,8 @@
       <c r="L5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3408,10 +3517,8 @@
       <c r="L6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3440,10 +3547,8 @@
       <c r="L7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3480,10 +3585,8 @@
       <c r="L8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3520,10 +3623,8 @@
       <c r="L9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3560,10 +3661,8 @@
       <c r="L10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3590,10 +3689,8 @@
       <c r="L11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3620,10 +3717,8 @@
       <c r="L12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3660,10 +3755,8 @@
       <c r="L13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -3700,10 +3793,8 @@
       <c r="L14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -3740,10 +3831,8 @@
       <c r="L15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -3780,10 +3869,8 @@
       <c r="L16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3810,10 +3897,8 @@
       <c r="L17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -3850,10 +3935,8 @@
       <c r="L18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -3880,10 +3963,8 @@
       <c r="L19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3920,10 +4001,8 @@
       <c r="L20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3960,10 +4039,8 @@
       <c r="L21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4000,10 +4077,8 @@
       <c r="L22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -4040,10 +4115,8 @@
       <c r="L23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -4080,10 +4153,8 @@
       <c r="L24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -4110,10 +4181,8 @@
       <c r="L25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -4150,10 +4219,8 @@
       <c r="L26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -4180,10 +4247,8 @@
       <c r="L27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -4218,10 +4283,8 @@
       <c r="L28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -4252,10 +4315,8 @@
       <c r="L29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -4292,10 +4353,8 @@
       <c r="L30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -4322,10 +4381,8 @@
       <c r="L31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -4362,10 +4419,8 @@
       <c r="L32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -4392,10 +4447,8 @@
       <c r="L33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -4424,10 +4477,8 @@
       <c r="L34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -4464,10 +4515,8 @@
       <c r="L35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -4496,10 +4545,8 @@
       <c r="L36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -4536,10 +4583,8 @@
       <c r="L37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -4576,10 +4621,8 @@
       <c r="L38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -4610,10 +4653,8 @@
       <c r="L39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -4650,10 +4691,8 @@
       <c r="L40" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -4680,10 +4719,8 @@
       <c r="L41" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -4720,10 +4757,8 @@
       <c r="L42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -4760,10 +4795,8 @@
       <c r="L43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -4800,10 +4833,8 @@
       <c r="L44" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -4840,10 +4871,8 @@
       <c r="L45" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
@@ -4880,10 +4909,8 @@
       <c r="L46" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -4918,10 +4945,8 @@
       <c r="L47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -4958,10 +4983,8 @@
       <c r="L48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
@@ -4998,10 +5021,8 @@
       <c r="L49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
@@ -5038,10 +5059,8 @@
       <c r="L50" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>31</v>
       </c>
@@ -5070,10 +5089,8 @@
       <c r="L51" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -5110,10 +5127,8 @@
       <c r="L52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
@@ -5150,10 +5165,8 @@
       <c r="L53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
@@ -5188,10 +5201,8 @@
       <c r="L54" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -5218,10 +5229,8 @@
       <c r="L55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -5248,10 +5257,8 @@
       <c r="L56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
@@ -5282,10 +5289,8 @@
       <c r="L57" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
@@ -5322,10 +5327,8 @@
       <c r="L58" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
@@ -5360,10 +5363,8 @@
       <c r="L59" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>31</v>
       </c>
@@ -5400,10 +5401,8 @@
       <c r="L60" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -5440,10 +5439,8 @@
       <c r="L61" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
@@ -5480,10 +5477,8 @@
       <c r="L62" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>19</v>
       </c>
@@ -5520,10 +5515,8 @@
       <c r="L63" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5560,10 +5553,8 @@
       <c r="L64" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>19</v>
       </c>
@@ -5600,10 +5591,8 @@
       <c r="L65" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>19</v>
       </c>
@@ -5640,10 +5629,8 @@
       <c r="L66" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
@@ -5670,10 +5657,8 @@
       <c r="L67" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
@@ -5700,10 +5685,8 @@
       <c r="L68" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>14</v>
       </c>
@@ -5730,10 +5713,8 @@
       <c r="L69" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>31</v>
       </c>
@@ -5770,10 +5751,8 @@
       <c r="L70" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>31</v>
       </c>
@@ -5810,10 +5789,8 @@
       <c r="L71" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
@@ -5842,10 +5819,8 @@
       <c r="L72" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>19</v>
       </c>
@@ -5882,10 +5857,8 @@
       <c r="L73" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>31</v>
       </c>
@@ -5922,10 +5895,8 @@
       <c r="L74" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
@@ -5962,10 +5933,8 @@
       <c r="L75" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -5992,10 +5961,8 @@
       <c r="L76" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>14</v>
       </c>
@@ -6022,10 +5989,8 @@
       <c r="L77" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -6052,10 +6017,8 @@
       <c r="L78" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-    </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>31</v>
       </c>
@@ -6092,10 +6055,8 @@
       <c r="L79" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-    </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>31</v>
       </c>
@@ -6124,10 +6085,8 @@
       <c r="L80" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-    </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>31</v>
       </c>
@@ -6164,10 +6123,8 @@
       <c r="L81" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>14</v>
       </c>
@@ -6194,10 +6151,8 @@
       <c r="L82" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
@@ -6234,10 +6189,8 @@
       <c r="L83" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
@@ -6264,10 +6217,8 @@
       <c r="L84" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>19</v>
       </c>
@@ -6304,10 +6255,8 @@
       <c r="L85" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>19</v>
       </c>
@@ -6344,10 +6293,8 @@
       <c r="L86" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>19</v>
       </c>
@@ -6384,10 +6331,8 @@
       <c r="L87" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
@@ -6422,10 +6367,8 @@
       <c r="L88" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>19</v>
       </c>
@@ -6462,10 +6405,8 @@
       <c r="L89" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="90" spans="1:12" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
@@ -6498,10 +6439,8 @@
       <c r="L90" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="91" spans="1:12" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>19</v>
       </c>
@@ -6538,10 +6477,8 @@
       <c r="L91" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="92" spans="1:12" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>19</v>
       </c>
@@ -6572,10 +6509,8 @@
       <c r="L92" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -6612,10 +6547,8 @@
       <c r="L93" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>19</v>
       </c>
@@ -6652,10 +6585,8 @@
       <c r="L94" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>31</v>
       </c>
@@ -6692,10 +6623,8 @@
       <c r="L95" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>14</v>
       </c>
@@ -6722,10 +6651,8 @@
       <c r="L96" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>19</v>
       </c>
@@ -6754,10 +6681,8 @@
       <c r="L97" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="98" spans="1:12" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>19</v>
       </c>
@@ -6794,10 +6719,8 @@
       <c r="L98" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>14</v>
       </c>
@@ -6824,10 +6747,8 @@
       <c r="L99" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="100" spans="1:12" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>19</v>
       </c>
@@ -6860,10 +6781,8 @@
       <c r="L100" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>19</v>
       </c>
@@ -6900,10 +6819,8 @@
       <c r="L101" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="102" spans="1:12" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>14</v>
       </c>
@@ -6930,10 +6847,8 @@
       <c r="L102" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-    </row>
-    <row r="103" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="103" spans="1:12" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>19</v>
       </c>
@@ -6970,10 +6885,8 @@
       <c r="L103" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-    </row>
-    <row r="104" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="104" spans="1:12" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>31</v>
       </c>
@@ -7002,10 +6915,8 @@
       <c r="L104" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-    </row>
-    <row r="105" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="105" spans="1:12" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>14</v>
       </c>
@@ -7032,10 +6943,8 @@
       <c r="L105" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="106" spans="1:12" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>14</v>
       </c>
@@ -7062,10 +6971,8 @@
       <c r="L106" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-    </row>
-    <row r="107" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="107" spans="1:12" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>19</v>
       </c>
@@ -7100,10 +7007,8 @@
       <c r="L107" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-    </row>
-    <row r="108" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="108" spans="1:12" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>19</v>
       </c>
@@ -7140,10 +7045,8 @@
       <c r="L108" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="109" spans="1:12" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>31</v>
       </c>
@@ -7180,10 +7083,8 @@
       <c r="L109" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-    </row>
-    <row r="110" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="110" spans="1:12" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>31</v>
       </c>
@@ -7218,10 +7119,8 @@
       <c r="L110" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-    </row>
-    <row r="111" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="111" spans="1:12" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>31</v>
       </c>
@@ -7252,10 +7151,8 @@
       <c r="L111" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-    </row>
-    <row r="112" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>31</v>
       </c>
@@ -7286,10 +7183,8 @@
       <c r="L112" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-    </row>
-    <row r="113" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="113" spans="1:12" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>14</v>
       </c>
@@ -7316,10 +7211,8 @@
       <c r="L113" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-    </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="114" spans="1:12" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>14</v>
       </c>
@@ -7346,10 +7239,8 @@
       <c r="L114" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-    </row>
-    <row r="115" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="115" spans="1:12" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>14</v>
       </c>
@@ -7376,10 +7267,8 @@
       <c r="L115" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-    </row>
-    <row r="116" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="116" spans="1:12" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>31</v>
       </c>
@@ -7416,10 +7305,8 @@
       <c r="L116" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
-    </row>
-    <row r="117" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="117" spans="1:12" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>19</v>
       </c>
@@ -7456,10 +7343,8 @@
       <c r="L117" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
-    </row>
-    <row r="118" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="118" spans="1:12" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>14</v>
       </c>
@@ -7486,10 +7371,8 @@
       <c r="L118" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M118" s="3"/>
-      <c r="N118" s="3"/>
-    </row>
-    <row r="119" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="119" spans="1:12" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>31</v>
       </c>
@@ -7526,10 +7409,8 @@
       <c r="L119" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-    </row>
-    <row r="120" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="120" spans="1:12" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>19</v>
       </c>
@@ -7566,10 +7447,8 @@
       <c r="L120" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-    </row>
-    <row r="121" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="121" spans="1:12" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>14</v>
       </c>
@@ -7596,10 +7475,8 @@
       <c r="L121" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M121" s="3"/>
-      <c r="N121" s="3"/>
-    </row>
-    <row r="122" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="122" spans="1:12" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>19</v>
       </c>
@@ -7628,10 +7505,8 @@
       <c r="L122" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
-    </row>
-    <row r="123" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="123" spans="1:12" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>19</v>
       </c>
@@ -7668,10 +7543,8 @@
       <c r="L123" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
-    </row>
-    <row r="124" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="124" spans="1:12" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>19</v>
       </c>
@@ -7708,10 +7581,8 @@
       <c r="L124" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
-    </row>
-    <row r="125" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="125" spans="1:12" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
@@ -7748,10 +7619,8 @@
       <c r="L125" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
-    </row>
-    <row r="126" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>19</v>
       </c>
@@ -7782,10 +7651,8 @@
       <c r="L126" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="M126" s="3"/>
-      <c r="N126" s="3"/>
-    </row>
-    <row r="127" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="127" spans="1:12" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>19</v>
       </c>
@@ -7816,10 +7683,8 @@
       <c r="L127" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
-    </row>
-    <row r="128" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="128" spans="1:12" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>14</v>
       </c>
@@ -7846,10 +7711,8 @@
       <c r="L128" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
-    </row>
-    <row r="129" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="129" spans="1:12" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>19</v>
       </c>
@@ -7886,10 +7749,8 @@
       <c r="L129" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
-    </row>
-    <row r="130" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="130" spans="1:12" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
@@ -7916,10 +7777,8 @@
       <c r="L130" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-    </row>
-    <row r="131" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="131" spans="1:12" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>31</v>
       </c>
@@ -7956,10 +7815,8 @@
       <c r="L131" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="M131" s="3"/>
-      <c r="N131" s="3"/>
-    </row>
-    <row r="132" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="132" spans="1:12" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>31</v>
       </c>
@@ -7996,10 +7853,8 @@
       <c r="L132" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
-    </row>
-    <row r="133" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="133" spans="1:12" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>14</v>
       </c>
@@ -8026,10 +7881,8 @@
       <c r="L133" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="M133" s="3"/>
-      <c r="N133" s="3"/>
-    </row>
-    <row r="134" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="134" spans="1:12" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>31</v>
       </c>
@@ -8066,10 +7919,8 @@
       <c r="L134" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="M134" s="3"/>
-      <c r="N134" s="3"/>
-    </row>
-    <row r="135" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="135" spans="1:12" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>31</v>
       </c>
@@ -8106,10 +7957,8 @@
       <c r="L135" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="M135" s="3"/>
-      <c r="N135" s="3"/>
-    </row>
-    <row r="136" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="136" spans="1:12" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>14</v>
       </c>
@@ -8136,10 +7985,8 @@
       <c r="L136" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="M136" s="3"/>
-      <c r="N136" s="3"/>
-    </row>
-    <row r="137" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="137" spans="1:12" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>14</v>
       </c>
@@ -8166,10 +8013,8 @@
       <c r="L137" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M137" s="3"/>
-      <c r="N137" s="3"/>
-    </row>
-    <row r="138" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="138" spans="1:12" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>19</v>
       </c>
@@ -8206,10 +8051,8 @@
       <c r="L138" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M138" s="3"/>
-      <c r="N138" s="3"/>
-    </row>
-    <row r="139" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="139" spans="1:12" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>19</v>
       </c>
@@ -8240,10 +8083,8 @@
       <c r="L139" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
-    </row>
-    <row r="140" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="140" spans="1:12" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>31</v>
       </c>
@@ -8274,10 +8115,8 @@
       <c r="L140" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M140" s="3"/>
-      <c r="N140" s="3"/>
-    </row>
-    <row r="141" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="141" spans="1:12" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>14</v>
       </c>
@@ -8304,10 +8143,8 @@
       <c r="L141" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M141" s="3"/>
-      <c r="N141" s="3"/>
-    </row>
-    <row r="142" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="142" spans="1:12" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>31</v>
       </c>
@@ -8344,10 +8181,8 @@
       <c r="L142" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="M142" s="3"/>
-      <c r="N142" s="3"/>
-    </row>
-    <row r="143" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="143" spans="1:12" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>19</v>
       </c>
@@ -8384,10 +8219,8 @@
       <c r="L143" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="M143" s="3"/>
-      <c r="N143" s="3"/>
-    </row>
-    <row r="144" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="144" spans="1:12" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>31</v>
       </c>
@@ -8424,10 +8257,8 @@
       <c r="L144" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="M144" s="3"/>
-      <c r="N144" s="3"/>
-    </row>
-    <row r="145" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="145" spans="1:12" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>31</v>
       </c>
@@ -8464,10 +8295,8 @@
       <c r="L145" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="M145" s="3"/>
-      <c r="N145" s="3"/>
-    </row>
-    <row r="146" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="146" spans="1:12" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>31</v>
       </c>
@@ -8504,10 +8333,8 @@
       <c r="L146" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="M146" s="3"/>
-      <c r="N146" s="3"/>
-    </row>
-    <row r="147" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="147" spans="1:12" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>31</v>
       </c>
@@ -8544,10 +8371,8 @@
       <c r="L147" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="M147" s="3"/>
-      <c r="N147" s="3"/>
-    </row>
-    <row r="148" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="148" spans="1:12" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>14</v>
       </c>
@@ -8574,10 +8399,8 @@
       <c r="L148" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="M148" s="3"/>
-      <c r="N148" s="3"/>
-    </row>
-    <row r="149" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="149" spans="1:12" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>31</v>
       </c>
@@ -8614,10 +8437,8 @@
       <c r="L149" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M149" s="3"/>
-      <c r="N149" s="3"/>
-    </row>
-    <row r="150" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="150" spans="1:12" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>14</v>
       </c>
@@ -8644,10 +8465,8 @@
       <c r="L150" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
-    </row>
-    <row r="151" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="151" spans="1:12" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>31</v>
       </c>
@@ -8684,10 +8503,8 @@
       <c r="L151" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="M151" s="3"/>
-      <c r="N151" s="3"/>
-    </row>
-    <row r="152" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="152" spans="1:12" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>19</v>
       </c>
@@ -8724,10 +8541,8 @@
       <c r="L152" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="M152" s="3"/>
-      <c r="N152" s="3"/>
-    </row>
-    <row r="153" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="153" spans="1:12" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>19</v>
       </c>
@@ -8764,10 +8579,8 @@
       <c r="L153" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="M153" s="3"/>
-      <c r="N153" s="3"/>
-    </row>
-    <row r="154" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="154" spans="1:12" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>31</v>
       </c>
@@ -8804,10 +8617,8 @@
       <c r="L154" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="M154" s="3"/>
-      <c r="N154" s="3"/>
-    </row>
-    <row r="155" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="155" spans="1:12" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>19</v>
       </c>
@@ -8844,10 +8655,8 @@
       <c r="L155" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="M155" s="3"/>
-      <c r="N155" s="3"/>
-    </row>
-    <row r="156" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="156" spans="1:12" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>14</v>
       </c>
@@ -8874,10 +8683,8 @@
       <c r="L156" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="M156" s="3"/>
-      <c r="N156" s="3"/>
-    </row>
-    <row r="157" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="157" spans="1:12" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>14</v>
       </c>
@@ -8904,10 +8711,8 @@
       <c r="L157" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="M157" s="3"/>
-      <c r="N157" s="3"/>
-    </row>
-    <row r="158" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="158" spans="1:12" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>14</v>
       </c>
@@ -8934,10 +8739,8 @@
       <c r="L158" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="M158" s="3"/>
-      <c r="N158" s="3"/>
-    </row>
-    <row r="159" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="159" spans="1:12" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>14</v>
       </c>
@@ -8964,10 +8767,8 @@
       <c r="L159" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="M159" s="3"/>
-      <c r="N159" s="3"/>
-    </row>
-    <row r="160" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="160" spans="1:12" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>31</v>
       </c>
@@ -8996,10 +8797,8 @@
       <c r="L160" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="M160" s="3"/>
-      <c r="N160" s="3"/>
-    </row>
-    <row r="161" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="161" spans="1:12" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -9026,10 +8825,8 @@
       <c r="L161" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="M161" s="3"/>
-      <c r="N161" s="3"/>
-    </row>
-    <row r="162" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="162" spans="1:12" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>19</v>
       </c>
@@ -9066,10 +8863,8 @@
       <c r="L162" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="M162" s="3"/>
-      <c r="N162" s="3"/>
-    </row>
-    <row r="163" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="163" spans="1:12" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>19</v>
       </c>
@@ -9102,10 +8897,8 @@
       <c r="L163" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="M163" s="3"/>
-      <c r="N163" s="3"/>
-    </row>
-    <row r="164" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="164" spans="1:12" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>31</v>
       </c>
@@ -9142,10 +8935,8 @@
       <c r="L164" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="M164" s="3"/>
-      <c r="N164" s="3"/>
-    </row>
-    <row r="165" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="165" spans="1:12" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -9182,10 +8973,8 @@
       <c r="L165" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="M165" s="3"/>
-      <c r="N165" s="3"/>
-    </row>
-    <row r="166" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="166" spans="1:12" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -9222,10 +9011,8 @@
       <c r="L166" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="M166" s="3"/>
-      <c r="N166" s="3"/>
-    </row>
-    <row r="167" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="167" spans="1:12" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>14</v>
       </c>
@@ -9252,10 +9039,8 @@
       <c r="L167" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="M167" s="3"/>
-      <c r="N167" s="3"/>
-    </row>
-    <row r="168" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="168" spans="1:12" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>14</v>
       </c>
@@ -9282,10 +9067,8 @@
       <c r="L168" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="M168" s="3"/>
-      <c r="N168" s="3"/>
-    </row>
-    <row r="169" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="169" spans="1:12" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>14</v>
       </c>
@@ -9312,10 +9095,8 @@
       <c r="L169" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M169" s="3"/>
-      <c r="N169" s="3"/>
-    </row>
-    <row r="170" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="170" spans="1:12" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>19</v>
       </c>
@@ -9352,10 +9133,8 @@
       <c r="L170" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="M170" s="3"/>
-      <c r="N170" s="3"/>
-    </row>
-    <row r="171" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="171" spans="1:12" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>14</v>
       </c>
@@ -9382,10 +9161,8 @@
       <c r="L171" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="M171" s="3"/>
-      <c r="N171" s="3"/>
-    </row>
-    <row r="172" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="172" spans="1:12" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>14</v>
       </c>
@@ -9412,10 +9189,8 @@
       <c r="L172" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="M172" s="3"/>
-      <c r="N172" s="3"/>
-    </row>
-    <row r="173" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="173" spans="1:12" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>14</v>
       </c>
@@ -9442,10 +9217,8 @@
       <c r="L173" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="M173" s="3"/>
-      <c r="N173" s="3"/>
-    </row>
-    <row r="174" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="174" spans="1:12" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>14</v>
       </c>
@@ -9472,10 +9245,8 @@
       <c r="L174" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="M174" s="3"/>
-      <c r="N174" s="3"/>
-    </row>
-    <row r="175" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="175" spans="1:12" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>14</v>
       </c>
@@ -9502,10 +9273,8 @@
       <c r="L175" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="M175" s="3"/>
-      <c r="N175" s="3"/>
-    </row>
-    <row r="176" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="176" spans="1:12" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>19</v>
       </c>
@@ -9542,10 +9311,8 @@
       <c r="L176" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="M176" s="3"/>
-      <c r="N176" s="3"/>
-    </row>
-    <row r="177" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="177" spans="1:12" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>19</v>
       </c>
@@ -9582,10 +9349,8 @@
       <c r="L177" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="M177" s="3"/>
-      <c r="N177" s="3"/>
-    </row>
-    <row r="178" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="178" spans="1:12" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>19</v>
       </c>
@@ -9620,10 +9385,8 @@
       <c r="L178" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="M178" s="3"/>
-      <c r="N178" s="3"/>
-    </row>
-    <row r="179" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="179" spans="1:12" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>14</v>
       </c>
@@ -9650,10 +9413,8 @@
       <c r="L179" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="M179" s="3"/>
-      <c r="N179" s="3"/>
-    </row>
-    <row r="180" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="180" spans="1:12" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>19</v>
       </c>
@@ -9690,10 +9451,8 @@
       <c r="L180" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
-    </row>
-    <row r="181" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="181" spans="1:12" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>14</v>
       </c>
@@ -9720,10 +9479,8 @@
       <c r="L181" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="M181" s="3"/>
-      <c r="N181" s="3"/>
-    </row>
-    <row r="182" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="182" spans="1:12" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>19</v>
       </c>
@@ -9760,10 +9517,8 @@
       <c r="L182" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M182" s="3"/>
-      <c r="N182" s="3"/>
-    </row>
-    <row r="183" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="183" spans="1:12" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>19</v>
       </c>
@@ -9800,10 +9555,8 @@
       <c r="L183" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="M183" s="3"/>
-      <c r="N183" s="3"/>
-    </row>
-    <row r="184" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="184" spans="1:12" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>14</v>
       </c>
@@ -9830,10 +9583,8 @@
       <c r="L184" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="M184" s="3"/>
-      <c r="N184" s="3"/>
-    </row>
-    <row r="185" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="185" spans="1:12" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>31</v>
       </c>
@@ -9862,10 +9613,8 @@
       <c r="L185" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="M185" s="3"/>
-      <c r="N185" s="3"/>
-    </row>
-    <row r="186" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="186" spans="1:12" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>31</v>
       </c>
@@ -9902,10 +9651,8 @@
       <c r="L186" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="M186" s="3"/>
-      <c r="N186" s="3"/>
-    </row>
-    <row r="187" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="187" spans="1:12" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>19</v>
       </c>
@@ -9942,10 +9689,8 @@
       <c r="L187" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="M187" s="3"/>
-      <c r="N187" s="3"/>
-    </row>
-    <row r="188" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="188" spans="1:12" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>14</v>
       </c>
@@ -9972,10 +9717,8 @@
       <c r="L188" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="M188" s="3"/>
-      <c r="N188" s="3"/>
-    </row>
-    <row r="189" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="189" spans="1:12" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>19</v>
       </c>
@@ -10012,10 +9755,8 @@
       <c r="L189" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="M189" s="3"/>
-      <c r="N189" s="3"/>
-    </row>
-    <row r="190" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="190" spans="1:12" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>19</v>
       </c>
@@ -10052,10 +9793,8 @@
       <c r="L190" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="M190" s="3"/>
-      <c r="N190" s="3"/>
-    </row>
-    <row r="191" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="191" spans="1:12" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
         <v>19</v>
       </c>
@@ -10092,10 +9831,8 @@
       <c r="L191" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
-    </row>
-    <row r="192" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="192" spans="1:12" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
         <v>31</v>
       </c>
@@ -10132,10 +9869,8 @@
       <c r="L192" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
-    </row>
-    <row r="193" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="193" spans="1:12" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>14</v>
       </c>
@@ -10162,10 +9897,8 @@
       <c r="L193" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="M193" s="3"/>
-      <c r="N193" s="3"/>
-    </row>
-    <row r="194" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="194" spans="1:12" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>14</v>
       </c>
@@ -10192,10 +9925,8 @@
       <c r="L194" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="M194" s="3"/>
-      <c r="N194" s="3"/>
-    </row>
-    <row r="195" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="195" spans="1:12" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>14</v>
       </c>
@@ -10222,10 +9953,8 @@
       <c r="L195" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="M195" s="3"/>
-      <c r="N195" s="3"/>
-    </row>
-    <row r="196" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="196" spans="1:12" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>31</v>
       </c>
@@ -10262,10 +9991,8 @@
       <c r="L196" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
-    </row>
-    <row r="197" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="197" spans="1:12" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>19</v>
       </c>
@@ -10302,10 +10029,8 @@
       <c r="L197" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
-    </row>
-    <row r="198" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="198" spans="1:12" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>31</v>
       </c>
@@ -10342,10 +10067,8 @@
       <c r="L198" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
-    </row>
-    <row r="199" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="199" spans="1:12" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>14</v>
       </c>
@@ -10372,10 +10095,8 @@
       <c r="L199" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
-    </row>
-    <row r="200" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="200" spans="1:12" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>19</v>
       </c>
@@ -10412,10 +10133,8 @@
       <c r="L200" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
-    </row>
-    <row r="201" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="201" spans="1:12" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>19</v>
       </c>
@@ -10452,10 +10171,8 @@
       <c r="L201" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
-    </row>
-    <row r="202" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="202" spans="1:12" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>14</v>
       </c>
@@ -10482,10 +10199,8 @@
       <c r="L202" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="M202" s="3"/>
-      <c r="N202" s="3"/>
-    </row>
-    <row r="203" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="203" spans="1:12" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>14</v>
       </c>
@@ -10512,10 +10227,8 @@
       <c r="L203" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="M203" s="3"/>
-      <c r="N203" s="3"/>
-    </row>
-    <row r="204" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="204" spans="1:12" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>14</v>
       </c>
@@ -10542,10 +10255,8 @@
       <c r="L204" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="M204" s="3"/>
-      <c r="N204" s="3"/>
-    </row>
-    <row r="205" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="205" spans="1:12" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>14</v>
       </c>
@@ -10572,10 +10283,8 @@
       <c r="L205" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="M205" s="3"/>
-      <c r="N205" s="3"/>
-    </row>
-    <row r="206" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="206" spans="1:12" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>19</v>
       </c>
@@ -10612,10 +10321,8 @@
       <c r="L206" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
-    </row>
-    <row r="207" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="207" spans="1:12" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>19</v>
       </c>
@@ -10650,10 +10357,8 @@
       <c r="L207" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
-    </row>
-    <row r="208" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="208" spans="1:12" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
         <v>14</v>
       </c>
@@ -10680,10 +10385,8 @@
       <c r="L208" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
-    </row>
-    <row r="209" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="209" spans="1:12" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>14</v>
       </c>
@@ -10710,10 +10413,8 @@
       <c r="L209" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="M209" s="3"/>
-      <c r="N209" s="3"/>
-    </row>
-    <row r="210" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="210" spans="1:12" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>19</v>
       </c>
@@ -10750,10 +10451,8 @@
       <c r="L210" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
-    </row>
-    <row r="211" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="211" spans="1:12" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>19</v>
       </c>
@@ -10784,10 +10483,8 @@
       <c r="L211" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
-    </row>
-    <row r="212" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="212" spans="1:12" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>31</v>
       </c>
@@ -10824,10 +10521,8 @@
       <c r="L212" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
-    </row>
-    <row r="213" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="213" spans="1:12" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>19</v>
       </c>
@@ -10864,10 +10559,8 @@
       <c r="L213" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-    </row>
-    <row r="214" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="214" spans="1:12" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
         <v>19</v>
       </c>
@@ -10904,10 +10597,8 @@
       <c r="L214" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-    </row>
-    <row r="215" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="215" spans="1:12" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>19</v>
       </c>
@@ -10944,10 +10635,8 @@
       <c r="L215" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-    </row>
-    <row r="216" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="216" spans="1:12" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
         <v>14</v>
       </c>
@@ -10974,10 +10663,8 @@
       <c r="L216" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
-    </row>
-    <row r="217" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="217" spans="1:12" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>19</v>
       </c>
@@ -11014,10 +10701,8 @@
       <c r="L217" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="M217" s="3"/>
-      <c r="N217" s="3"/>
-    </row>
-    <row r="218" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="218" spans="1:12" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>19</v>
       </c>
@@ -11054,10 +10739,8 @@
       <c r="L218" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
-    </row>
-    <row r="219" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="219" spans="1:12" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
         <v>19</v>
       </c>
@@ -11094,10 +10777,8 @@
       <c r="L219" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-    </row>
-    <row r="220" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="220" spans="1:12" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>19</v>
       </c>
@@ -11134,10 +10815,8 @@
       <c r="L220" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
-    </row>
-    <row r="221" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="221" spans="1:12" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>14</v>
       </c>
@@ -11164,10 +10843,8 @@
       <c r="L221" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-    </row>
-    <row r="222" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="222" spans="1:12" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>19</v>
       </c>
@@ -11204,10 +10881,8 @@
       <c r="L222" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-    </row>
-    <row r="223" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="223" spans="1:12" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>19</v>
       </c>
@@ -11244,10 +10919,8 @@
       <c r="L223" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
-    </row>
-    <row r="224" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="224" spans="1:12" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>19</v>
       </c>
@@ -11284,10 +10957,8 @@
       <c r="L224" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
-    </row>
-    <row r="225" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="225" spans="1:12" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>14</v>
       </c>
@@ -11314,10 +10985,8 @@
       <c r="L225" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
-    </row>
-    <row r="226" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="226" spans="1:12" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>31</v>
       </c>
@@ -11354,10 +11023,8 @@
       <c r="L226" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
-    </row>
-    <row r="227" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="227" spans="1:12" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
         <v>14</v>
       </c>
@@ -11384,10 +11051,8 @@
       <c r="L227" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
-    </row>
-    <row r="228" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="228" spans="1:12" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>31</v>
       </c>
@@ -11424,10 +11089,8 @@
       <c r="L228" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-    </row>
-    <row r="229" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="229" spans="1:12" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>14</v>
       </c>
@@ -11454,10 +11117,8 @@
       <c r="L229" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="M229" s="3"/>
-      <c r="N229" s="3"/>
-    </row>
-    <row r="230" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="230" spans="1:12" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
         <v>19</v>
       </c>
@@ -11494,10 +11155,8 @@
       <c r="L230" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="M230" s="3"/>
-      <c r="N230" s="3"/>
-    </row>
-    <row r="231" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="231" spans="1:12" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>31</v>
       </c>
@@ -11528,10 +11187,8 @@
       <c r="L231" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="M231" s="3"/>
-      <c r="N231" s="3"/>
-    </row>
-    <row r="232" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="232" spans="1:12" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>31</v>
       </c>
@@ -11568,10 +11225,8 @@
       <c r="L232" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="M232" s="3"/>
-      <c r="N232" s="3"/>
-    </row>
-    <row r="233" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="233" spans="1:12" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>14</v>
       </c>
@@ -11598,10 +11253,8 @@
       <c r="L233" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="M233" s="3"/>
-      <c r="N233" s="3"/>
-    </row>
-    <row r="234" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="234" spans="1:12" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
         <v>19</v>
       </c>
@@ -11638,10 +11291,8 @@
       <c r="L234" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
-    </row>
-    <row r="235" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="235" spans="1:12" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
         <v>19</v>
       </c>
@@ -11678,10 +11329,8 @@
       <c r="L235" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
-    </row>
-    <row r="236" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="236" spans="1:12" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>19</v>
       </c>
@@ -11718,10 +11367,8 @@
       <c r="L236" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="M236" s="3"/>
-      <c r="N236" s="3"/>
-    </row>
-    <row r="237" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="237" spans="1:12" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
         <v>19</v>
       </c>
@@ -11758,10 +11405,8 @@
       <c r="L237" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="M237" s="3"/>
-      <c r="N237" s="3"/>
-    </row>
-    <row r="238" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="238" spans="1:12" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>19</v>
       </c>
@@ -11798,10 +11443,8 @@
       <c r="L238" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
-    </row>
-    <row r="239" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="239" spans="1:12" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
         <v>19</v>
       </c>
@@ -11838,10 +11481,8 @@
       <c r="L239" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="M239" s="3"/>
-      <c r="N239" s="3"/>
-    </row>
-    <row r="240" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="240" spans="1:12" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -11874,10 +11515,8 @@
       <c r="L240" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="M240" s="3"/>
-      <c r="N240" s="3"/>
-    </row>
-    <row r="241" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="241" spans="1:12" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>14</v>
       </c>
@@ -11904,10 +11543,8 @@
       <c r="L241" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="M241" s="3"/>
-      <c r="N241" s="3"/>
-    </row>
-    <row r="242" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="242" spans="1:12" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>19</v>
       </c>
@@ -11944,10 +11581,8 @@
       <c r="L242" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="M242" s="3"/>
-      <c r="N242" s="3"/>
-    </row>
-    <row r="243" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="243" spans="1:12" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>19</v>
       </c>
@@ -11984,10 +11619,8 @@
       <c r="L243" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="M243" s="3"/>
-      <c r="N243" s="3"/>
-    </row>
-    <row r="244" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="244" spans="1:12" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
         <v>19</v>
       </c>
@@ -12024,10 +11657,8 @@
       <c r="L244" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="M244" s="3"/>
-      <c r="N244" s="3"/>
-    </row>
-    <row r="245" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="245" spans="1:12" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>19</v>
       </c>
@@ -12064,10 +11695,8 @@
       <c r="L245" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="M245" s="3"/>
-      <c r="N245" s="3"/>
-    </row>
-    <row r="246" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="246" spans="1:12" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
         <v>14</v>
       </c>
@@ -12094,10 +11723,8 @@
       <c r="L246" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="M246" s="3"/>
-      <c r="N246" s="3"/>
-    </row>
-    <row r="247" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="247" spans="1:12" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
         <v>14</v>
       </c>
@@ -12124,10 +11751,8 @@
       <c r="L247" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="M247" s="3"/>
-      <c r="N247" s="3"/>
-    </row>
-    <row r="248" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="248" spans="1:12" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
         <v>14</v>
       </c>
@@ -12154,10 +11779,8 @@
       <c r="L248" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="M248" s="3"/>
-      <c r="N248" s="3"/>
-    </row>
-    <row r="249" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="249" spans="1:12" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
         <v>19</v>
       </c>
@@ -12194,10 +11817,8 @@
       <c r="L249" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="M249" s="3"/>
-      <c r="N249" s="3"/>
-    </row>
-    <row r="250" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="250" spans="1:12" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
         <v>19</v>
       </c>
@@ -12234,10 +11855,8 @@
       <c r="L250" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="M250" s="3"/>
-      <c r="N250" s="3"/>
-    </row>
-    <row r="251" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="251" spans="1:12" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>19</v>
       </c>
@@ -12274,10 +11893,8 @@
       <c r="L251" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="M251" s="3"/>
-      <c r="N251" s="3"/>
-    </row>
-    <row r="252" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="252" spans="1:12" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>19</v>
       </c>
@@ -12314,10 +11931,8 @@
       <c r="L252" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="M252" s="3"/>
-      <c r="N252" s="3"/>
-    </row>
-    <row r="253" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="253" spans="1:12" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>19</v>
       </c>
@@ -12346,10 +11961,8 @@
       <c r="L253" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="M253" s="3"/>
-      <c r="N253" s="3"/>
-    </row>
-    <row r="254" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="254" spans="1:12" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>19</v>
       </c>
@@ -12386,10 +11999,8 @@
       <c r="L254" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="M254" s="3"/>
-      <c r="N254" s="3"/>
-    </row>
-    <row r="255" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="255" spans="1:12" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>19</v>
       </c>
@@ -12424,10 +12035,8 @@
       <c r="L255" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="M255" s="3"/>
-      <c r="N255" s="3"/>
-    </row>
-    <row r="256" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="256" spans="1:12" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>19</v>
       </c>
@@ -12464,10 +12073,8 @@
       <c r="L256" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="M256" s="3"/>
-      <c r="N256" s="3"/>
-    </row>
-    <row r="257" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="257" spans="1:12" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>19</v>
       </c>
@@ -12504,10 +12111,8 @@
       <c r="L257" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="M257" s="3"/>
-      <c r="N257" s="3"/>
-    </row>
-    <row r="258" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="258" spans="1:12" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>31</v>
       </c>
@@ -12544,10 +12149,8 @@
       <c r="L258" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="M258" s="3"/>
-      <c r="N258" s="3"/>
-    </row>
-    <row r="259" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="259" spans="1:12" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>19</v>
       </c>
@@ -12584,10 +12187,8 @@
       <c r="L259" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M259" s="3"/>
-      <c r="N259" s="3"/>
-    </row>
-    <row r="260" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="260" spans="1:12" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>19</v>
       </c>
@@ -12624,10 +12225,8 @@
       <c r="L260" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="M260" s="3"/>
-      <c r="N260" s="3"/>
-    </row>
-    <row r="261" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="261" spans="1:12" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
         <v>31</v>
       </c>
@@ -12664,10 +12263,8 @@
       <c r="L261" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="M261" s="3"/>
-      <c r="N261" s="3"/>
-    </row>
-    <row r="262" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="262" spans="1:12" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>19</v>
       </c>
@@ -12704,10 +12301,8 @@
       <c r="L262" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M262" s="3"/>
-      <c r="N262" s="3"/>
-    </row>
-    <row r="263" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="263" spans="1:12" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>19</v>
       </c>
@@ -12744,10 +12339,8 @@
       <c r="L263" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="M263" s="3"/>
-      <c r="N263" s="3"/>
-    </row>
-    <row r="264" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="264" spans="1:12" ht="15.75" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>19</v>
       </c>
@@ -12780,10 +12373,8 @@
       <c r="L264" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="M264" s="3"/>
-      <c r="N264" s="3"/>
-    </row>
-    <row r="265" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="265" spans="1:12" ht="15.75" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>19</v>
       </c>
@@ -12820,10 +12411,8 @@
       <c r="L265" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="M265" s="3"/>
-      <c r="N265" s="3"/>
-    </row>
-    <row r="266" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="266" spans="1:12" ht="15.75" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>19</v>
       </c>
@@ -12860,10 +12449,8 @@
       <c r="L266" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="M266" s="3"/>
-      <c r="N266" s="3"/>
-    </row>
-    <row r="267" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="267" spans="1:12" ht="15.75" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>19</v>
       </c>
@@ -12900,10 +12487,8 @@
       <c r="L267" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="M267" s="3"/>
-      <c r="N267" s="3"/>
-    </row>
-    <row r="268" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="268" spans="1:12" ht="15.75" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>31</v>
       </c>
@@ -12940,10 +12525,8 @@
       <c r="L268" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="M268" s="3"/>
-      <c r="N268" s="3"/>
-    </row>
-    <row r="269" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="269" spans="1:12" ht="15.75" customHeight="1">
       <c r="A269" s="1" t="s">
         <v>31</v>
       </c>
@@ -12980,10 +12563,8 @@
       <c r="L269" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="M269" s="3"/>
-      <c r="N269" s="3"/>
-    </row>
-    <row r="270" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="270" spans="1:12" ht="15.75" customHeight="1">
       <c r="A270" s="1" t="s">
         <v>14</v>
       </c>
@@ -13010,10 +12591,8 @@
       <c r="L270" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="M270" s="3"/>
-      <c r="N270" s="3"/>
-    </row>
-    <row r="271" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="271" spans="1:12" ht="15.75" customHeight="1">
       <c r="A271" s="1" t="s">
         <v>19</v>
       </c>
@@ -13050,10 +12629,8 @@
       <c r="L271" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="M271" s="3"/>
-      <c r="N271" s="3"/>
-    </row>
-    <row r="272" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="272" spans="1:12" ht="15.75" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>19</v>
       </c>
@@ -13090,10 +12667,8 @@
       <c r="L272" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="M272" s="3"/>
-      <c r="N272" s="3"/>
-    </row>
-    <row r="273" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="273" spans="1:12" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>19</v>
       </c>
@@ -13130,10 +12705,8 @@
       <c r="L273" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="M273" s="3"/>
-      <c r="N273" s="3"/>
-    </row>
-    <row r="274" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="274" spans="1:12" ht="15.75" customHeight="1">
       <c r="A274" s="1" t="s">
         <v>19</v>
       </c>
@@ -13170,10 +12743,8 @@
       <c r="L274" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="M274" s="3"/>
-      <c r="N274" s="3"/>
-    </row>
-    <row r="275" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="275" spans="1:12" ht="15.75" customHeight="1">
       <c r="A275" s="1" t="s">
         <v>19</v>
       </c>
@@ -13210,10 +12781,8 @@
       <c r="L275" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="M275" s="3"/>
-      <c r="N275" s="3"/>
-    </row>
-    <row r="276" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="276" spans="1:12" ht="15.75" customHeight="1">
       <c r="A276" s="1" t="s">
         <v>14</v>
       </c>
@@ -13240,10 +12809,8 @@
       <c r="L276" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="M276" s="3"/>
-      <c r="N276" s="3"/>
-    </row>
-    <row r="277" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="277" spans="1:12" ht="15.75" customHeight="1">
       <c r="A277" s="1" t="s">
         <v>31</v>
       </c>
@@ -13280,10 +12847,8 @@
       <c r="L277" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="M277" s="3"/>
-      <c r="N277" s="3"/>
-    </row>
-    <row r="278" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="278" spans="1:12" ht="15.75" customHeight="1">
       <c r="A278" s="1" t="s">
         <v>19</v>
       </c>
@@ -13320,10 +12885,8 @@
       <c r="L278" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="M278" s="3"/>
-      <c r="N278" s="3"/>
-    </row>
-    <row r="279" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="279" spans="1:12" ht="15.75" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>19</v>
       </c>
@@ -13360,10 +12923,8 @@
       <c r="L279" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="M279" s="3"/>
-      <c r="N279" s="3"/>
-    </row>
-    <row r="280" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="280" spans="1:12" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
         <v>19</v>
       </c>
@@ -13400,10 +12961,8 @@
       <c r="L280" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="M280" s="3"/>
-      <c r="N280" s="3"/>
-    </row>
-    <row r="281" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="281" spans="1:12" ht="15.75" customHeight="1">
       <c r="A281" s="1" t="s">
         <v>19</v>
       </c>
@@ -13440,10 +12999,8 @@
       <c r="L281" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="M281" s="3"/>
-      <c r="N281" s="3"/>
-    </row>
-    <row r="282" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="282" spans="1:12" ht="15.75" customHeight="1">
       <c r="A282" s="1" t="s">
         <v>19</v>
       </c>
@@ -13480,10 +13037,8 @@
       <c r="L282" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="M282" s="3"/>
-      <c r="N282" s="3"/>
-    </row>
-    <row r="283" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="283" spans="1:12" ht="15.75" customHeight="1">
       <c r="A283" s="1" t="s">
         <v>19</v>
       </c>
@@ -13514,10 +13069,8 @@
       <c r="L283" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="M283" s="3"/>
-      <c r="N283" s="3"/>
-    </row>
-    <row r="284" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="284" spans="1:12" ht="15.75" customHeight="1">
       <c r="A284" s="1" t="s">
         <v>19</v>
       </c>
@@ -13552,10 +13105,8 @@
       <c r="L284" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="M284" s="3"/>
-      <c r="N284" s="3"/>
-    </row>
-    <row r="285" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="285" spans="1:12" ht="15.75" customHeight="1">
       <c r="A285" s="1" t="s">
         <v>19</v>
       </c>
@@ -13588,10 +13139,8 @@
       <c r="L285" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="M285" s="3"/>
-      <c r="N285" s="3"/>
-    </row>
-    <row r="286" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="286" spans="1:12" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
         <v>19</v>
       </c>
@@ -13628,10 +13177,8 @@
       <c r="L286" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="M286" s="3"/>
-      <c r="N286" s="3"/>
-    </row>
-    <row r="287" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="287" spans="1:12" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
         <v>19</v>
       </c>
@@ -13668,10 +13215,8 @@
       <c r="L287" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="M287" s="3"/>
-      <c r="N287" s="3"/>
-    </row>
-    <row r="288" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="288" spans="1:12" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
         <v>19</v>
       </c>
@@ -13708,10 +13253,8 @@
       <c r="L288" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="M288" s="3"/>
-      <c r="N288" s="3"/>
-    </row>
-    <row r="289" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="289" spans="1:12" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
         <v>19</v>
       </c>
@@ -13748,10 +13291,8 @@
       <c r="L289" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="M289" s="3"/>
-      <c r="N289" s="3"/>
-    </row>
-    <row r="290" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="290" spans="1:12" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
         <v>31</v>
       </c>
@@ -13788,10 +13329,8 @@
       <c r="L290" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="M290" s="3"/>
-      <c r="N290" s="3"/>
-    </row>
-    <row r="291" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="291" spans="1:12" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
         <v>19</v>
       </c>
@@ -13820,10 +13359,8 @@
       <c r="L291" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="M291" s="3"/>
-      <c r="N291" s="3"/>
-    </row>
-    <row r="292" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="292" spans="1:12" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
         <v>19</v>
       </c>
@@ -13852,10 +13389,8 @@
       <c r="L292" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="M292" s="3"/>
-      <c r="N292" s="3"/>
-    </row>
-    <row r="293" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="293" spans="1:12" ht="15.75" customHeight="1">
       <c r="A293" s="1" t="s">
         <v>19</v>
       </c>
@@ -13892,10 +13427,8 @@
       <c r="L293" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="M293" s="3"/>
-      <c r="N293" s="3"/>
-    </row>
-    <row r="294" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="294" spans="1:12" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
         <v>19</v>
       </c>
@@ -13932,10 +13465,8 @@
       <c r="L294" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="M294" s="3"/>
-      <c r="N294" s="3"/>
-    </row>
-    <row r="295" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="295" spans="1:12" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
         <v>19</v>
       </c>
@@ -13972,10 +13503,8 @@
       <c r="L295" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="M295" s="3"/>
-      <c r="N295" s="3"/>
-    </row>
-    <row r="296" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="296" spans="1:12" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
         <v>19</v>
       </c>
@@ -14004,10 +13533,8 @@
       <c r="L296" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="M296" s="3"/>
-      <c r="N296" s="3"/>
-    </row>
-    <row r="297" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="297" spans="1:12" ht="15.75" customHeight="1">
       <c r="A297" s="1" t="s">
         <v>14</v>
       </c>
@@ -14034,10 +13561,8 @@
       <c r="L297" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="M297" s="3"/>
-      <c r="N297" s="3"/>
-    </row>
-    <row r="298" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="298" spans="1:12" ht="15.75" customHeight="1">
       <c r="A298" s="1" t="s">
         <v>14</v>
       </c>
@@ -14064,10 +13589,8 @@
       <c r="L298" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="M298" s="3"/>
-      <c r="N298" s="3"/>
-    </row>
-    <row r="299" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="299" spans="1:12" ht="15.75" customHeight="1">
       <c r="A299" s="1" t="s">
         <v>14</v>
       </c>
@@ -14094,10 +13617,8 @@
       <c r="L299" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="M299" s="3"/>
-      <c r="N299" s="3"/>
-    </row>
-    <row r="300" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="300" spans="1:12" ht="15.75" customHeight="1">
       <c r="A300" s="1" t="s">
         <v>19</v>
       </c>
@@ -14134,10 +13655,8 @@
       <c r="L300" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="M300" s="3"/>
-      <c r="N300" s="3"/>
-    </row>
-    <row r="301" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="301" spans="1:12" ht="15.75" customHeight="1">
       <c r="A301" s="1" t="s">
         <v>19</v>
       </c>
@@ -14174,10 +13693,8 @@
       <c r="L301" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="M301" s="3"/>
-      <c r="N301" s="3"/>
-    </row>
-    <row r="302" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="302" spans="1:12" ht="15.75" customHeight="1">
       <c r="A302" s="1" t="s">
         <v>19</v>
       </c>
@@ -14214,10 +13731,8 @@
       <c r="L302" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="M302" s="3"/>
-      <c r="N302" s="3"/>
-    </row>
-    <row r="303" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="303" spans="1:12" ht="15.75" customHeight="1">
       <c r="A303" s="1" t="s">
         <v>19</v>
       </c>
@@ -14254,10 +13769,8 @@
       <c r="L303" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="M303" s="3"/>
-      <c r="N303" s="3"/>
-    </row>
-    <row r="304" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="304" spans="1:12" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
         <v>19</v>
       </c>
@@ -14294,10 +13807,8 @@
       <c r="L304" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="M304" s="3"/>
-      <c r="N304" s="3"/>
-    </row>
-    <row r="305" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="305" spans="1:12" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
         <v>19</v>
       </c>
@@ -14334,10 +13845,8 @@
       <c r="L305" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="M305" s="3"/>
-      <c r="N305" s="3"/>
-    </row>
-    <row r="306" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="306" spans="1:12" ht="15.75" customHeight="1">
       <c r="A306" s="1" t="s">
         <v>19</v>
       </c>
@@ -14374,10 +13883,8 @@
       <c r="L306" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="M306" s="3"/>
-      <c r="N306" s="3"/>
-    </row>
-    <row r="307" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="307" spans="1:12" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
         <v>19</v>
       </c>
@@ -14406,10 +13913,8 @@
       <c r="L307" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="M307" s="3"/>
-      <c r="N307" s="3"/>
-    </row>
-    <row r="308" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="308" spans="1:12" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
         <v>19</v>
       </c>
@@ -14438,10 +13943,8 @@
       <c r="L308" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="M308" s="3"/>
-      <c r="N308" s="3"/>
-    </row>
-    <row r="309" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="309" spans="1:12" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
         <v>19</v>
       </c>
@@ -14478,10 +13981,8 @@
       <c r="L309" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="M309" s="3"/>
-      <c r="N309" s="3"/>
-    </row>
-    <row r="310" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="310" spans="1:12" ht="15.75" customHeight="1">
       <c r="A310" s="1" t="s">
         <v>19</v>
       </c>
@@ -14518,10 +14019,8 @@
       <c r="L310" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="M310" s="3"/>
-      <c r="N310" s="3"/>
-    </row>
-    <row r="311" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="311" spans="1:12" ht="15.75" customHeight="1">
       <c r="A311" s="1" t="s">
         <v>19</v>
       </c>
@@ -14558,10 +14057,8 @@
       <c r="L311" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="M311" s="3"/>
-      <c r="N311" s="3"/>
-    </row>
-    <row r="312" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="312" spans="1:12" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
         <v>19</v>
       </c>
@@ -14598,10 +14095,8 @@
       <c r="L312" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="M312" s="3"/>
-      <c r="N312" s="3"/>
-    </row>
-    <row r="313" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="313" spans="1:12" ht="15.75" customHeight="1">
       <c r="A313" s="1" t="s">
         <v>19</v>
       </c>
@@ -14638,10 +14133,8 @@
       <c r="L313" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="M313" s="3"/>
-      <c r="N313" s="3"/>
-    </row>
-    <row r="314" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="314" spans="1:12" ht="15.75" customHeight="1">
       <c r="A314" s="1" t="s">
         <v>19</v>
       </c>
@@ -14674,10 +14167,8 @@
       <c r="L314" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="M314" s="3"/>
-      <c r="N314" s="3"/>
-    </row>
-    <row r="315" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="315" spans="1:12" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
         <v>19</v>
       </c>
@@ -14710,10 +14201,8 @@
       <c r="L315" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="M315" s="3"/>
-      <c r="N315" s="3"/>
-    </row>
-    <row r="316" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="316" spans="1:12" ht="15.75" customHeight="1">
       <c r="A316" s="1" t="s">
         <v>19</v>
       </c>
@@ -14746,10 +14235,8 @@
       <c r="L316" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="M316" s="3"/>
-      <c r="N316" s="3"/>
-    </row>
-    <row r="317" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="317" spans="1:12" ht="15.75" customHeight="1">
       <c r="A317" s="1" t="s">
         <v>19</v>
       </c>
@@ -14786,10 +14273,8 @@
       <c r="L317" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="M317" s="3"/>
-      <c r="N317" s="3"/>
-    </row>
-    <row r="318" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="318" spans="1:12" ht="15.75" customHeight="1">
       <c r="A318" s="1" t="s">
         <v>14</v>
       </c>
@@ -14816,10 +14301,8 @@
       <c r="L318" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="M318" s="3"/>
-      <c r="N318" s="3"/>
-    </row>
-    <row r="319" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="319" spans="1:12" ht="15.75" customHeight="1">
       <c r="A319" s="1" t="s">
         <v>14</v>
       </c>
@@ -14846,10 +14329,8 @@
       <c r="L319" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="M319" s="3"/>
-      <c r="N319" s="3"/>
-    </row>
-    <row r="320" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="320" spans="1:12" ht="15.75" customHeight="1">
       <c r="A320" s="1" t="s">
         <v>19</v>
       </c>
@@ -14886,10 +14367,8 @@
       <c r="L320" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="M320" s="3"/>
-      <c r="N320" s="3"/>
-    </row>
-    <row r="321" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="321" spans="1:12" ht="15.75" customHeight="1">
       <c r="A321" s="1" t="s">
         <v>19</v>
       </c>
@@ -14926,10 +14405,8 @@
       <c r="L321" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="M321" s="3"/>
-      <c r="N321" s="3"/>
-    </row>
-    <row r="322" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="322" spans="1:12" ht="15.75" customHeight="1">
       <c r="A322" s="1" t="s">
         <v>19</v>
       </c>
@@ -14966,10 +14443,8 @@
       <c r="L322" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="M322" s="3"/>
-      <c r="N322" s="3"/>
-    </row>
-    <row r="323" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="323" spans="1:12" ht="15.75" customHeight="1">
       <c r="A323" s="1" t="s">
         <v>19</v>
       </c>
@@ -15006,10 +14481,8 @@
       <c r="L323" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="M323" s="3"/>
-      <c r="N323" s="3"/>
-    </row>
-    <row r="324" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="324" spans="1:12" ht="15.75" customHeight="1">
       <c r="A324" s="1" t="s">
         <v>19</v>
       </c>
@@ -15038,10 +14511,8 @@
       <c r="L324" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="M324" s="3"/>
-      <c r="N324" s="3"/>
-    </row>
-    <row r="325" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="325" spans="1:12" ht="15.75" customHeight="1">
       <c r="A325" s="1" t="s">
         <v>19</v>
       </c>
@@ -15078,10 +14549,8 @@
       <c r="L325" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="M325" s="3"/>
-      <c r="N325" s="3"/>
-    </row>
-    <row r="326" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="326" spans="1:12" ht="15.75" customHeight="1">
       <c r="A326" s="1" t="s">
         <v>19</v>
       </c>
@@ -15118,10 +14587,8 @@
       <c r="L326" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="M326" s="3"/>
-      <c r="N326" s="3"/>
-    </row>
-    <row r="327" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="327" spans="1:12" ht="15.75" customHeight="1">
       <c r="A327" s="1" t="s">
         <v>19</v>
       </c>
@@ -15158,10 +14625,8 @@
       <c r="L327" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="M327" s="3"/>
-      <c r="N327" s="3"/>
-    </row>
-    <row r="328" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="328" spans="1:12" ht="15.75" customHeight="1">
       <c r="A328" s="1" t="s">
         <v>19</v>
       </c>
@@ -15198,10 +14663,8 @@
       <c r="L328" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="M328" s="3"/>
-      <c r="N328" s="3"/>
-    </row>
-    <row r="329" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="329" spans="1:12" ht="15.75" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>19</v>
       </c>
@@ -15226,10 +14689,8 @@
       <c r="J329" s="3"/>
       <c r="K329" s="3"/>
       <c r="L329" s="3"/>
-      <c r="M329" s="3"/>
-      <c r="N329" s="3"/>
-    </row>
-    <row r="330" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="330" spans="1:12" ht="15.75" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>19</v>
       </c>
@@ -15254,10 +14715,8 @@
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
-      <c r="M330" s="3"/>
-      <c r="N330" s="3"/>
-    </row>
-    <row r="331" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="331" spans="1:12" ht="15.75" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>19</v>
       </c>
@@ -15282,10 +14741,8 @@
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
       <c r="L331" s="3"/>
-      <c r="M331" s="3"/>
-      <c r="N331" s="3"/>
-    </row>
-    <row r="332" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="332" spans="1:12" ht="15.75" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>19</v>
       </c>
@@ -15310,10 +14767,8 @@
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
-      <c r="M332" s="3"/>
-      <c r="N332" s="3"/>
-    </row>
-    <row r="333" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="333" spans="1:12" ht="15.75" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>19</v>
       </c>
@@ -15338,10 +14793,8 @@
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
-      <c r="M333" s="3"/>
-      <c r="N333" s="3"/>
-    </row>
-    <row r="334" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="334" spans="1:12" ht="15.75" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>19</v>
       </c>
@@ -15366,10 +14819,8 @@
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
       <c r="L334" s="3"/>
-      <c r="M334" s="3"/>
-      <c r="N334" s="3"/>
-    </row>
-    <row r="335" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="335" spans="1:12" ht="15.75" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>19</v>
       </c>
@@ -15394,10 +14845,8 @@
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
       <c r="L335" s="3"/>
-      <c r="M335" s="3"/>
-      <c r="N335" s="3"/>
-    </row>
-    <row r="336" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="336" spans="1:12" ht="15.75" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>19</v>
       </c>
@@ -15422,10 +14871,8 @@
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
       <c r="L336" s="3"/>
-      <c r="M336" s="3"/>
-      <c r="N336" s="3"/>
-    </row>
-    <row r="337" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="337" spans="1:12" ht="15.75" customHeight="1">
       <c r="A337" s="1" t="s">
         <v>19</v>
       </c>
@@ -15450,10 +14897,8 @@
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
-      <c r="M337" s="3"/>
-      <c r="N337" s="3"/>
-    </row>
-    <row r="338" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="338" spans="1:12" ht="15.75" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>19</v>
       </c>
@@ -15478,10 +14923,8 @@
       <c r="J338" s="3"/>
       <c r="K338" s="3"/>
       <c r="L338" s="3"/>
-      <c r="M338" s="3"/>
-      <c r="N338" s="3"/>
-    </row>
-    <row r="339" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="339" spans="1:12" ht="15.75" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>19</v>
       </c>
@@ -15506,10 +14949,8 @@
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
       <c r="L339" s="3"/>
-      <c r="M339" s="3"/>
-      <c r="N339" s="3"/>
-    </row>
-    <row r="340" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="340" spans="1:12" ht="15.75" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>19</v>
       </c>
@@ -15534,10 +14975,8 @@
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
-      <c r="M340" s="3"/>
-      <c r="N340" s="3"/>
-    </row>
-    <row r="341" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="341" spans="1:12" ht="15.75" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>19</v>
       </c>
@@ -15562,10 +15001,8 @@
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
-      <c r="M341" s="3"/>
-      <c r="N341" s="3"/>
-    </row>
-    <row r="342" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="342" spans="1:12" ht="15.75" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>19</v>
       </c>
@@ -15590,10 +15027,8 @@
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
       <c r="L342" s="3"/>
-      <c r="M342" s="3"/>
-      <c r="N342" s="3"/>
-    </row>
-    <row r="343" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="343" spans="1:12" ht="15.75" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>19</v>
       </c>
@@ -15618,10 +15053,8 @@
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
-      <c r="M343" s="3"/>
-      <c r="N343" s="3"/>
-    </row>
-    <row r="344" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="344" spans="1:12" ht="15.75" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>19</v>
       </c>
@@ -15646,10 +15079,8 @@
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
-      <c r="M344" s="3"/>
-      <c r="N344" s="3"/>
-    </row>
-    <row r="345" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="345" spans="1:12" ht="15.75" customHeight="1">
       <c r="A345" s="1" t="s">
         <v>19</v>
       </c>
@@ -15674,10 +15105,8 @@
       <c r="J345" s="3"/>
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
-      <c r="M345" s="3"/>
-      <c r="N345" s="3"/>
-    </row>
-    <row r="346" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="346" spans="1:12" ht="15.75" customHeight="1">
       <c r="A346" s="1" t="s">
         <v>19</v>
       </c>
@@ -15702,10 +15131,8 @@
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
-      <c r="M346" s="3"/>
-      <c r="N346" s="3"/>
-    </row>
-    <row r="347" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="347" spans="1:12" ht="15.75" customHeight="1">
       <c r="A347" s="1" t="s">
         <v>19</v>
       </c>
@@ -15730,10 +15157,8 @@
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
-      <c r="M347" s="3"/>
-      <c r="N347" s="3"/>
-    </row>
-    <row r="348" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="348" spans="1:12" ht="15.75" customHeight="1">
       <c r="A348" s="1" t="s">
         <v>19</v>
       </c>
@@ -15758,10 +15183,8 @@
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
-      <c r="M348" s="3"/>
-      <c r="N348" s="3"/>
-    </row>
-    <row r="349" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="349" spans="1:12" ht="15.75" customHeight="1">
       <c r="A349" s="1" t="s">
         <v>19</v>
       </c>
@@ -15786,10 +15209,8 @@
       <c r="J349" s="3"/>
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
-      <c r="M349" s="3"/>
-      <c r="N349" s="3"/>
-    </row>
-    <row r="350" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="350" spans="1:12" ht="15.75" customHeight="1">
       <c r="A350" s="1" t="s">
         <v>19</v>
       </c>
@@ -15814,10 +15235,8 @@
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
-      <c r="M350" s="3"/>
-      <c r="N350" s="3"/>
-    </row>
-    <row r="351" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="351" spans="1:12" ht="15.75" customHeight="1">
       <c r="A351" s="1" t="s">
         <v>19</v>
       </c>
@@ -15842,10 +15261,8 @@
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
-      <c r="M351" s="3"/>
-      <c r="N351" s="3"/>
-    </row>
-    <row r="352" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="352" spans="1:12" ht="15.75" customHeight="1">
       <c r="A352" s="1" t="s">
         <v>19</v>
       </c>
@@ -15870,10 +15287,8 @@
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
-      <c r="M352" s="3"/>
-      <c r="N352" s="3"/>
-    </row>
-    <row r="353" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="353" spans="1:12" ht="15.75" customHeight="1">
       <c r="A353" s="1" t="s">
         <v>19</v>
       </c>
@@ -15898,10 +15313,8 @@
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
-      <c r="M353" s="3"/>
-      <c r="N353" s="3"/>
-    </row>
-    <row r="354" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="354" spans="1:12" ht="15.75" customHeight="1">
       <c r="A354" s="1" t="s">
         <v>19</v>
       </c>
@@ -15926,10 +15339,8 @@
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
-      <c r="M354" s="3"/>
-      <c r="N354" s="3"/>
-    </row>
-    <row r="355" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="355" spans="1:12" ht="15.75" customHeight="1">
       <c r="A355" s="1" t="s">
         <v>19</v>
       </c>
@@ -15954,10 +15365,8 @@
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
       <c r="L355" s="3"/>
-      <c r="M355" s="3"/>
-      <c r="N355" s="3"/>
-    </row>
-    <row r="356" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="356" spans="1:12" ht="15.75" customHeight="1">
       <c r="A356" s="1" t="s">
         <v>19</v>
       </c>
@@ -15982,10 +15391,8 @@
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
-      <c r="M356" s="3"/>
-      <c r="N356" s="3"/>
-    </row>
-    <row r="357" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="357" spans="1:12" ht="15.75" customHeight="1">
       <c r="A357" s="1" t="s">
         <v>19</v>
       </c>
@@ -16010,10 +15417,8 @@
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
       <c r="L357" s="3"/>
-      <c r="M357" s="3"/>
-      <c r="N357" s="3"/>
-    </row>
-    <row r="358" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="358" spans="1:12" ht="15.75" customHeight="1">
       <c r="A358" s="1" t="s">
         <v>19</v>
       </c>
@@ -16038,10 +15443,8 @@
       <c r="J358" s="3"/>
       <c r="K358" s="3"/>
       <c r="L358" s="3"/>
-      <c r="M358" s="3"/>
-      <c r="N358" s="3"/>
-    </row>
-    <row r="359" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="359" spans="1:12" ht="15.75" customHeight="1">
       <c r="A359" s="1" t="s">
         <v>19</v>
       </c>
@@ -16066,10 +15469,8 @@
       <c r="J359" s="3"/>
       <c r="K359" s="3"/>
       <c r="L359" s="3"/>
-      <c r="M359" s="3"/>
-      <c r="N359" s="3"/>
-    </row>
-    <row r="360" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="360" spans="1:12" ht="15.75" customHeight="1">
       <c r="A360" s="1" t="s">
         <v>19</v>
       </c>
@@ -16094,10 +15495,8 @@
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
       <c r="L360" s="3"/>
-      <c r="M360" s="3"/>
-      <c r="N360" s="3"/>
-    </row>
-    <row r="361" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="361" spans="1:12" ht="15.75" customHeight="1">
       <c r="A361" s="1" t="s">
         <v>19</v>
       </c>
@@ -16122,10 +15521,8 @@
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
       <c r="L361" s="3"/>
-      <c r="M361" s="3"/>
-      <c r="N361" s="3"/>
-    </row>
-    <row r="362" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="362" spans="1:12" ht="15.75" customHeight="1">
       <c r="A362" s="1" t="s">
         <v>19</v>
       </c>
@@ -16150,10 +15547,8 @@
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
       <c r="L362" s="3"/>
-      <c r="M362" s="3"/>
-      <c r="N362" s="3"/>
-    </row>
-    <row r="363" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="363" spans="1:12" ht="15.75" customHeight="1">
       <c r="A363" s="1" t="s">
         <v>19</v>
       </c>
@@ -16178,10 +15573,8 @@
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
       <c r="L363" s="3"/>
-      <c r="M363" s="3"/>
-      <c r="N363" s="3"/>
-    </row>
-    <row r="364" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="364" spans="1:12" ht="15.75" customHeight="1">
       <c r="A364" s="1" t="s">
         <v>19</v>
       </c>
@@ -16206,10 +15599,8 @@
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
       <c r="L364" s="3"/>
-      <c r="M364" s="3"/>
-      <c r="N364" s="3"/>
-    </row>
-    <row r="365" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="365" spans="1:12" ht="15.75" customHeight="1">
       <c r="A365" s="1" t="s">
         <v>19</v>
       </c>
@@ -16234,10 +15625,8 @@
       <c r="J365" s="3"/>
       <c r="K365" s="3"/>
       <c r="L365" s="3"/>
-      <c r="M365" s="3"/>
-      <c r="N365" s="3"/>
-    </row>
-    <row r="366" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="366" spans="1:12" ht="15.75" customHeight="1">
       <c r="A366" s="1" t="s">
         <v>19</v>
       </c>
@@ -16262,10 +15651,8 @@
       <c r="J366" s="3"/>
       <c r="K366" s="3"/>
       <c r="L366" s="3"/>
-      <c r="M366" s="3"/>
-      <c r="N366" s="3"/>
-    </row>
-    <row r="367" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="367" spans="1:12" ht="15.75" customHeight="1">
       <c r="A367" s="1" t="s">
         <v>19</v>
       </c>
@@ -16290,10 +15677,8 @@
       <c r="J367" s="3"/>
       <c r="K367" s="3"/>
       <c r="L367" s="3"/>
-      <c r="M367" s="3"/>
-      <c r="N367" s="3"/>
-    </row>
-    <row r="368" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="368" spans="1:12" ht="15.75" customHeight="1">
       <c r="A368" s="1" t="s">
         <v>19</v>
       </c>
@@ -16320,10 +15705,8 @@
       <c r="J368" s="3"/>
       <c r="K368" s="3"/>
       <c r="L368" s="3"/>
-      <c r="M368" s="3"/>
-      <c r="N368" s="3"/>
-    </row>
-    <row r="369" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="369" spans="1:12" ht="15.75" customHeight="1">
       <c r="A369" s="1" t="s">
         <v>19</v>
       </c>
@@ -16350,10 +15733,8 @@
       <c r="J369" s="3"/>
       <c r="K369" s="3"/>
       <c r="L369" s="3"/>
-      <c r="M369" s="3"/>
-      <c r="N369" s="3"/>
-    </row>
-    <row r="370" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="370" spans="1:12" ht="15.75" customHeight="1">
       <c r="A370" s="1" t="s">
         <v>19</v>
       </c>
@@ -16380,10 +15761,8 @@
       <c r="J370" s="3"/>
       <c r="K370" s="3"/>
       <c r="L370" s="3"/>
-      <c r="M370" s="3"/>
-      <c r="N370" s="3"/>
-    </row>
-    <row r="371" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="371" spans="1:12" ht="15.75" customHeight="1">
       <c r="A371" s="1" t="s">
         <v>19</v>
       </c>
@@ -16412,10 +15791,8 @@
       <c r="J371" s="3"/>
       <c r="K371" s="3"/>
       <c r="L371" s="3"/>
-      <c r="M371" s="3"/>
-      <c r="N371" s="3"/>
-    </row>
-    <row r="372" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="372" spans="1:12" ht="15.75" customHeight="1">
       <c r="A372" s="1" t="s">
         <v>19</v>
       </c>
@@ -16444,10 +15821,8 @@
       <c r="J372" s="3"/>
       <c r="K372" s="3"/>
       <c r="L372" s="3"/>
-      <c r="M372" s="3"/>
-      <c r="N372" s="3"/>
-    </row>
-    <row r="373" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="373" spans="1:12" ht="15.75" customHeight="1">
       <c r="A373" s="1" t="s">
         <v>19</v>
       </c>
@@ -16474,10 +15849,8 @@
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
       <c r="L373" s="3"/>
-      <c r="M373" s="3"/>
-      <c r="N373" s="3"/>
-    </row>
-    <row r="374" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="374" spans="1:12" ht="15.75" customHeight="1">
       <c r="A374" s="1" t="s">
         <v>19</v>
       </c>
@@ -16504,10 +15877,8 @@
       <c r="J374" s="3"/>
       <c r="K374" s="3"/>
       <c r="L374" s="3"/>
-      <c r="M374" s="3"/>
-      <c r="N374" s="3"/>
-    </row>
-    <row r="375" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="375" spans="1:12" ht="15.75" customHeight="1">
       <c r="A375" s="1" t="s">
         <v>19</v>
       </c>
@@ -16534,10 +15905,8 @@
       <c r="J375" s="3"/>
       <c r="K375" s="3"/>
       <c r="L375" s="3"/>
-      <c r="M375" s="3"/>
-      <c r="N375" s="3"/>
-    </row>
-    <row r="376" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="376" spans="1:12" ht="15.75" customHeight="1">
       <c r="A376" s="1" t="s">
         <v>19</v>
       </c>
@@ -16568,10 +15937,8 @@
       <c r="J376" s="3"/>
       <c r="K376" s="3"/>
       <c r="L376" s="3"/>
-      <c r="M376" s="3"/>
-      <c r="N376" s="3"/>
-    </row>
-    <row r="377" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="377" spans="1:12" ht="15.75" customHeight="1">
       <c r="A377" s="1" t="s">
         <v>19</v>
       </c>
@@ -16604,10 +15971,8 @@
       </c>
       <c r="K377" s="3"/>
       <c r="L377" s="3"/>
-      <c r="M377" s="3"/>
-      <c r="N377" s="3"/>
-    </row>
-    <row r="378" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="378" spans="1:12" ht="15.75" customHeight="1">
       <c r="A378" s="1" t="s">
         <v>19</v>
       </c>
@@ -16634,10 +15999,8 @@
       <c r="J378" s="3"/>
       <c r="K378" s="3"/>
       <c r="L378" s="3"/>
-      <c r="M378" s="3"/>
-      <c r="N378" s="3"/>
-    </row>
-    <row r="379" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="379" spans="1:12" ht="15.75" customHeight="1">
       <c r="A379" s="1" t="s">
         <v>19</v>
       </c>
@@ -16672,10 +16035,8 @@
         <v>1</v>
       </c>
       <c r="L379" s="3"/>
-      <c r="M379" s="3"/>
-      <c r="N379" s="3"/>
-    </row>
-    <row r="380" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="380" spans="1:12" ht="15.75" customHeight="1">
       <c r="A380" s="1" t="s">
         <v>19</v>
       </c>
@@ -16704,10 +16065,8 @@
       <c r="J380" s="3"/>
       <c r="K380" s="3"/>
       <c r="L380" s="3"/>
-      <c r="M380" s="3"/>
-      <c r="N380" s="3"/>
-    </row>
-    <row r="381" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="381" spans="1:12" ht="15.75" customHeight="1">
       <c r="A381" s="1" t="s">
         <v>19</v>
       </c>
@@ -16736,10 +16095,8 @@
       <c r="J381" s="3"/>
       <c r="K381" s="3"/>
       <c r="L381" s="3"/>
-      <c r="M381" s="3"/>
-      <c r="N381" s="3"/>
-    </row>
-    <row r="382" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="382" spans="1:12" ht="15.75" customHeight="1">
       <c r="A382" s="1" t="s">
         <v>19</v>
       </c>
@@ -16768,10 +16125,8 @@
       <c r="J382" s="3"/>
       <c r="K382" s="3"/>
       <c r="L382" s="3"/>
-      <c r="M382" s="3"/>
-      <c r="N382" s="3"/>
-    </row>
-    <row r="383" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="383" spans="1:12" ht="15.75" customHeight="1">
       <c r="A383" s="1" t="s">
         <v>19</v>
       </c>
@@ -16806,10 +16161,8 @@
         <v>1</v>
       </c>
       <c r="L383" s="3"/>
-      <c r="M383" s="3"/>
-      <c r="N383" s="3"/>
-    </row>
-    <row r="384" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="384" spans="1:12" ht="15.75" customHeight="1">
       <c r="A384" s="1" t="s">
         <v>19</v>
       </c>
@@ -16836,10 +16189,8 @@
       <c r="J384" s="3"/>
       <c r="K384" s="3"/>
       <c r="L384" s="3"/>
-      <c r="M384" s="3"/>
-      <c r="N384" s="3"/>
-    </row>
-    <row r="385" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="385" spans="1:12" ht="15.75" customHeight="1">
       <c r="A385" s="1" t="s">
         <v>19</v>
       </c>
@@ -16874,10 +16225,8 @@
         <v>6</v>
       </c>
       <c r="L385" s="3"/>
-      <c r="M385" s="3"/>
-      <c r="N385" s="3"/>
-    </row>
-    <row r="386" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="386" spans="1:12" ht="15.75" customHeight="1">
       <c r="A386" s="1" t="s">
         <v>19</v>
       </c>
@@ -16912,10 +16261,8 @@
         <v>10</v>
       </c>
       <c r="L386" s="3"/>
-      <c r="M386" s="3"/>
-      <c r="N386" s="3"/>
-    </row>
-    <row r="387" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="387" spans="1:12" ht="15.75" customHeight="1">
       <c r="A387" s="1" t="s">
         <v>19</v>
       </c>
@@ -16950,10 +16297,8 @@
         <v>4</v>
       </c>
       <c r="L387" s="3"/>
-      <c r="M387" s="3"/>
-      <c r="N387" s="3"/>
-    </row>
-    <row r="388" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="388" spans="1:12" ht="15.75" customHeight="1">
       <c r="A388" s="1" t="s">
         <v>19</v>
       </c>
@@ -16988,10 +16333,8 @@
         <v>1</v>
       </c>
       <c r="L388" s="3"/>
-      <c r="M388" s="3"/>
-      <c r="N388" s="3"/>
-    </row>
-    <row r="389" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="389" spans="1:12" ht="15.75" customHeight="1">
       <c r="A389" s="1" t="s">
         <v>19</v>
       </c>
@@ -17022,10 +16365,8 @@
       <c r="J389" s="3"/>
       <c r="K389" s="3"/>
       <c r="L389" s="3"/>
-      <c r="M389" s="3"/>
-      <c r="N389" s="3"/>
-    </row>
-    <row r="390" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="390" spans="1:12" ht="15.75" customHeight="1">
       <c r="A390" s="1" t="s">
         <v>19</v>
       </c>
@@ -17060,10 +16401,8 @@
         <v>7</v>
       </c>
       <c r="L390" s="3"/>
-      <c r="M390" s="3"/>
-      <c r="N390" s="3"/>
-    </row>
-    <row r="391" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="391" spans="1:12" ht="15.75" customHeight="1">
       <c r="A391" s="1" t="s">
         <v>19</v>
       </c>
@@ -17096,10 +16435,8 @@
       </c>
       <c r="K391" s="3"/>
       <c r="L391" s="3"/>
-      <c r="M391" s="3"/>
-      <c r="N391" s="3"/>
-    </row>
-    <row r="392" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="392" spans="1:12" ht="15.75" customHeight="1">
       <c r="A392" s="1" t="s">
         <v>19</v>
       </c>
@@ -17134,10 +16471,8 @@
         <v>5</v>
       </c>
       <c r="L392" s="3"/>
-      <c r="M392" s="3"/>
-      <c r="N392" s="3"/>
-    </row>
-    <row r="393" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="393" spans="1:12" ht="15.75" customHeight="1">
       <c r="A393" s="1" t="s">
         <v>19</v>
       </c>
@@ -17172,10 +16507,8 @@
         <v>3</v>
       </c>
       <c r="L393" s="3"/>
-      <c r="M393" s="3"/>
-      <c r="N393" s="3"/>
-    </row>
-    <row r="394" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="394" spans="1:12" ht="15.75" customHeight="1">
       <c r="A394" s="1" t="s">
         <v>19</v>
       </c>
@@ -17210,10 +16543,8 @@
         <v>12</v>
       </c>
       <c r="L394" s="3"/>
-      <c r="M394" s="3"/>
-      <c r="N394" s="3"/>
-    </row>
-    <row r="395" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="395" spans="1:12" ht="15.75" customHeight="1">
       <c r="A395" s="1" t="s">
         <v>19</v>
       </c>
@@ -17248,10 +16579,8 @@
         <v>4</v>
       </c>
       <c r="L395" s="3"/>
-      <c r="M395" s="3"/>
-      <c r="N395" s="3"/>
-    </row>
-    <row r="396" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="396" spans="1:12" ht="15.75" customHeight="1">
       <c r="A396" s="1" t="s">
         <v>19</v>
       </c>
@@ -17284,10 +16613,8 @@
       </c>
       <c r="K396" s="3"/>
       <c r="L396" s="3"/>
-      <c r="M396" s="3"/>
-      <c r="N396" s="3"/>
-    </row>
-    <row r="397" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="397" spans="1:12" ht="15.75" customHeight="1">
       <c r="A397" s="1" t="s">
         <v>19</v>
       </c>
@@ -17322,10 +16649,8 @@
         <v>5</v>
       </c>
       <c r="L397" s="3"/>
-      <c r="M397" s="3"/>
-      <c r="N397" s="3"/>
-    </row>
-    <row r="398" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="398" spans="1:12" ht="15.75" customHeight="1">
       <c r="A398" s="1" t="s">
         <v>19</v>
       </c>
@@ -17360,10 +16685,8 @@
         <v>9</v>
       </c>
       <c r="L398" s="3"/>
-      <c r="M398" s="3"/>
-      <c r="N398" s="3"/>
-    </row>
-    <row r="399" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="399" spans="1:12" ht="15.75" customHeight="1">
       <c r="A399" s="1" t="s">
         <v>19</v>
       </c>
@@ -17396,10 +16719,8 @@
       </c>
       <c r="K399" s="3"/>
       <c r="L399" s="3"/>
-      <c r="M399" s="3"/>
-      <c r="N399" s="3"/>
-    </row>
-    <row r="400" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="400" spans="1:12" ht="15.75" customHeight="1">
       <c r="A400" s="1" t="s">
         <v>19</v>
       </c>
@@ -17434,10 +16755,8 @@
         <v>3</v>
       </c>
       <c r="L400" s="3"/>
-      <c r="M400" s="3"/>
-      <c r="N400" s="3"/>
-    </row>
-    <row r="401" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="401" spans="1:12" ht="15.75" customHeight="1">
       <c r="A401" s="1" t="s">
         <v>19</v>
       </c>
@@ -17472,10 +16791,8 @@
         <v>1</v>
       </c>
       <c r="L401" s="3"/>
-      <c r="M401" s="3"/>
-      <c r="N401" s="3"/>
-    </row>
-    <row r="402" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="402" spans="1:12" ht="15.75" customHeight="1">
       <c r="A402" s="1" t="s">
         <v>19</v>
       </c>
@@ -17510,10 +16827,8 @@
         <v>44</v>
       </c>
       <c r="L402" s="3"/>
-      <c r="M402" s="3"/>
-      <c r="N402" s="3"/>
-    </row>
-    <row r="403" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="403" spans="1:12" ht="15.75" customHeight="1">
       <c r="A403" s="1" t="s">
         <v>19</v>
       </c>
@@ -17548,10 +16863,8 @@
         <v>2</v>
       </c>
       <c r="L403" s="3"/>
-      <c r="M403" s="3"/>
-      <c r="N403" s="3"/>
-    </row>
-    <row r="404" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="404" spans="1:12" ht="15.75" customHeight="1">
       <c r="A404" s="1" t="s">
         <v>19</v>
       </c>
@@ -17586,10 +16899,8 @@
         <v>1</v>
       </c>
       <c r="L404" s="3"/>
-      <c r="M404" s="3"/>
-      <c r="N404" s="3"/>
-    </row>
-    <row r="405" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="405" spans="1:12" ht="15.75" customHeight="1">
       <c r="A405" s="1" t="s">
         <v>19</v>
       </c>
@@ -17620,10 +16931,8 @@
       <c r="J405" s="3"/>
       <c r="K405" s="3"/>
       <c r="L405" s="3"/>
-      <c r="M405" s="3"/>
-      <c r="N405" s="3"/>
-    </row>
-    <row r="406" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="406" spans="1:12" ht="15.75" customHeight="1">
       <c r="A406" s="1" t="s">
         <v>19</v>
       </c>
@@ -17650,10 +16959,8 @@
       <c r="J406" s="3"/>
       <c r="K406" s="3"/>
       <c r="L406" s="3"/>
-      <c r="M406" s="3"/>
-      <c r="N406" s="3"/>
-    </row>
-    <row r="407" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="407" spans="1:12" ht="15.75" customHeight="1">
       <c r="A407" s="1" t="s">
         <v>19</v>
       </c>
@@ -17680,10 +16987,8 @@
       <c r="J407" s="3"/>
       <c r="K407" s="3"/>
       <c r="L407" s="3"/>
-      <c r="M407" s="3"/>
-      <c r="N407" s="3"/>
-    </row>
-    <row r="408" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="408" spans="1:12" ht="15.75" customHeight="1">
       <c r="A408" s="1" t="s">
         <v>19</v>
       </c>
@@ -17710,10 +17015,8 @@
       <c r="J408" s="3"/>
       <c r="K408" s="3"/>
       <c r="L408" s="3"/>
-      <c r="M408" s="3"/>
-      <c r="N408" s="3"/>
-    </row>
-    <row r="409" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="409" spans="1:12" ht="15.75" customHeight="1">
       <c r="A409" s="1" t="s">
         <v>19</v>
       </c>
@@ -17748,10 +17051,8 @@
         <v>3</v>
       </c>
       <c r="L409" s="3"/>
-      <c r="M409" s="3"/>
-      <c r="N409" s="3"/>
-    </row>
-    <row r="410" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="410" spans="1:12" ht="15.75" customHeight="1">
       <c r="A410" s="1" t="s">
         <v>19</v>
       </c>
@@ -17786,10 +17087,8 @@
         <v>4</v>
       </c>
       <c r="L410" s="3"/>
-      <c r="M410" s="3"/>
-      <c r="N410" s="3"/>
-    </row>
-    <row r="411" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="411" spans="1:12" ht="15.75" customHeight="1">
       <c r="A411" s="1" t="s">
         <v>19</v>
       </c>
@@ -17824,10 +17123,8 @@
         <v>156</v>
       </c>
       <c r="L411" s="3"/>
-      <c r="M411" s="3"/>
-      <c r="N411" s="3"/>
-    </row>
-    <row r="412" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="412" spans="1:12" ht="15.75" customHeight="1">
       <c r="A412" s="1" t="s">
         <v>19</v>
       </c>
@@ -17858,10 +17155,8 @@
       <c r="J412" s="3"/>
       <c r="K412" s="3"/>
       <c r="L412" s="3"/>
-      <c r="M412" s="3"/>
-      <c r="N412" s="3"/>
-    </row>
-    <row r="413" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="413" spans="1:12" ht="15.75" customHeight="1">
       <c r="A413" s="1" t="s">
         <v>19</v>
       </c>
@@ -17892,10 +17187,8 @@
       <c r="J413" s="3"/>
       <c r="K413" s="3"/>
       <c r="L413" s="3"/>
-      <c r="M413" s="3"/>
-      <c r="N413" s="3"/>
-    </row>
-    <row r="414" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="414" spans="1:12" ht="15.75" customHeight="1">
       <c r="A414" s="1" t="s">
         <v>19</v>
       </c>
@@ -17930,10 +17223,8 @@
         <v>2</v>
       </c>
       <c r="L414" s="3"/>
-      <c r="M414" s="3"/>
-      <c r="N414" s="3"/>
-    </row>
-    <row r="415" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="415" spans="1:12" ht="15.75" customHeight="1">
       <c r="A415" s="1" t="s">
         <v>19</v>
       </c>
@@ -17968,10 +17259,8 @@
         <v>6</v>
       </c>
       <c r="L415" s="3"/>
-      <c r="M415" s="3"/>
-      <c r="N415" s="3"/>
-    </row>
-    <row r="416" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="416" spans="1:12" ht="15.75" customHeight="1">
       <c r="A416" s="1" t="s">
         <v>19</v>
       </c>
@@ -18006,10 +17295,8 @@
         <v>22</v>
       </c>
       <c r="L416" s="3"/>
-      <c r="M416" s="3"/>
-      <c r="N416" s="3"/>
-    </row>
-    <row r="417" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="417" spans="1:12" ht="15.75" customHeight="1">
       <c r="A417" s="1" t="s">
         <v>19</v>
       </c>
@@ -18036,10 +17323,8 @@
       <c r="J417" s="3"/>
       <c r="K417" s="3"/>
       <c r="L417" s="3"/>
-      <c r="M417" s="3"/>
-      <c r="N417" s="3"/>
-    </row>
-    <row r="418" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="418" spans="1:12" ht="15.75" customHeight="1">
       <c r="A418" s="1" t="s">
         <v>19</v>
       </c>
@@ -18074,10 +17359,8 @@
         <v>6</v>
       </c>
       <c r="L418" s="3"/>
-      <c r="M418" s="3"/>
-      <c r="N418" s="3"/>
-    </row>
-    <row r="419" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="419" spans="1:12" ht="15.75" customHeight="1">
       <c r="A419" s="1" t="s">
         <v>19</v>
       </c>
@@ -18108,10 +17391,8 @@
       <c r="J419" s="3"/>
       <c r="K419" s="3"/>
       <c r="L419" s="3"/>
-      <c r="M419" s="3"/>
-      <c r="N419" s="3"/>
-    </row>
-    <row r="420" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="420" spans="1:12" ht="15.75" customHeight="1">
       <c r="A420" s="1" t="s">
         <v>19</v>
       </c>
@@ -18140,10 +17421,8 @@
       <c r="J420" s="3"/>
       <c r="K420" s="3"/>
       <c r="L420" s="3"/>
-      <c r="M420" s="3"/>
-      <c r="N420" s="3"/>
-    </row>
-    <row r="421" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="421" spans="1:12" ht="15.75" customHeight="1">
       <c r="A421" s="1" t="s">
         <v>19</v>
       </c>
@@ -18170,10 +17449,8 @@
       <c r="J421" s="3"/>
       <c r="K421" s="3"/>
       <c r="L421" s="3"/>
-      <c r="M421" s="3"/>
-      <c r="N421" s="3"/>
-    </row>
-    <row r="422" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="422" spans="1:12" ht="15.75" customHeight="1">
       <c r="A422" s="1" t="s">
         <v>31</v>
       </c>
@@ -18198,10 +17475,8 @@
       <c r="J422" s="3"/>
       <c r="K422" s="3"/>
       <c r="L422" s="3"/>
-      <c r="M422" s="3"/>
-      <c r="N422" s="3"/>
-    </row>
-    <row r="423" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="423" spans="1:12" ht="15.75" customHeight="1">
       <c r="A423" s="1" t="s">
         <v>31</v>
       </c>
@@ -18226,10 +17501,8 @@
       <c r="J423" s="3"/>
       <c r="K423" s="3"/>
       <c r="L423" s="3"/>
-      <c r="M423" s="3"/>
-      <c r="N423" s="3"/>
-    </row>
-    <row r="424" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="424" spans="1:12" ht="15.75" customHeight="1">
       <c r="A424" s="1" t="s">
         <v>31</v>
       </c>
@@ -18254,10 +17527,8 @@
       <c r="J424" s="3"/>
       <c r="K424" s="3"/>
       <c r="L424" s="3"/>
-      <c r="M424" s="3"/>
-      <c r="N424" s="3"/>
-    </row>
-    <row r="425" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="425" spans="1:12" ht="15.75" customHeight="1">
       <c r="A425" s="1" t="s">
         <v>31</v>
       </c>
@@ -18282,10 +17553,8 @@
       <c r="J425" s="3"/>
       <c r="K425" s="3"/>
       <c r="L425" s="3"/>
-      <c r="M425" s="3"/>
-      <c r="N425" s="3"/>
-    </row>
-    <row r="426" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="426" spans="1:12" ht="15.75" customHeight="1">
       <c r="A426" s="1" t="s">
         <v>31</v>
       </c>
@@ -18310,10 +17579,8 @@
       <c r="J426" s="3"/>
       <c r="K426" s="3"/>
       <c r="L426" s="3"/>
-      <c r="M426" s="3"/>
-      <c r="N426" s="3"/>
-    </row>
-    <row r="427" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="427" spans="1:12" ht="15.75" customHeight="1">
       <c r="A427" s="1" t="s">
         <v>31</v>
       </c>
@@ -18338,10 +17605,8 @@
       <c r="J427" s="3"/>
       <c r="K427" s="3"/>
       <c r="L427" s="3"/>
-      <c r="M427" s="3"/>
-      <c r="N427" s="3"/>
-    </row>
-    <row r="428" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="428" spans="1:12" ht="15.75" customHeight="1">
       <c r="A428" s="1" t="s">
         <v>31</v>
       </c>
@@ -18368,10 +17633,8 @@
       <c r="J428" s="3"/>
       <c r="K428" s="3"/>
       <c r="L428" s="3"/>
-      <c r="M428" s="3"/>
-      <c r="N428" s="3"/>
-    </row>
-    <row r="429" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="429" spans="1:12" ht="15.75" customHeight="1">
       <c r="A429" s="1" t="s">
         <v>31</v>
       </c>
@@ -18398,10 +17661,8 @@
       <c r="J429" s="3"/>
       <c r="K429" s="3"/>
       <c r="L429" s="3"/>
-      <c r="M429" s="3"/>
-      <c r="N429" s="3"/>
-    </row>
-    <row r="430" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="430" spans="1:12" ht="15.75" customHeight="1">
       <c r="A430" s="1" t="s">
         <v>31</v>
       </c>
@@ -18430,10 +17691,8 @@
       <c r="J430" s="3"/>
       <c r="K430" s="3"/>
       <c r="L430" s="3"/>
-      <c r="M430" s="3"/>
-      <c r="N430" s="3"/>
-    </row>
-    <row r="431" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="431" spans="1:12" ht="15.75" customHeight="1">
       <c r="A431" s="1" t="s">
         <v>31</v>
       </c>
@@ -18468,10 +17727,8 @@
         <v>10</v>
       </c>
       <c r="L431" s="3"/>
-      <c r="M431" s="3"/>
-      <c r="N431" s="3"/>
-    </row>
-    <row r="432" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="432" spans="1:12" ht="15.75" customHeight="1">
       <c r="A432" s="1" t="s">
         <v>31</v>
       </c>
@@ -18506,10 +17763,8 @@
         <v>11</v>
       </c>
       <c r="L432" s="3"/>
-      <c r="M432" s="3"/>
-      <c r="N432" s="3"/>
-    </row>
-    <row r="433" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="433" spans="1:12" ht="15.75" customHeight="1">
       <c r="A433" s="1" t="s">
         <v>31</v>
       </c>
@@ -18542,10 +17797,8 @@
       </c>
       <c r="K433" s="3"/>
       <c r="L433" s="3"/>
-      <c r="M433" s="3"/>
-      <c r="N433" s="3"/>
-    </row>
-    <row r="434" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="434" spans="1:12" ht="15.75" customHeight="1">
       <c r="A434" s="1" t="s">
         <v>31</v>
       </c>
@@ -18580,11 +17833,10 @@
         <v>81</v>
       </c>
       <c r="L434" s="3"/>
-      <c r="M434" s="3"/>
-      <c r="N434" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18598,7 +17850,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -20514,6 +19766,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -20526,7 +19779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G276"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -26880,6 +26135,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -26892,7 +26148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -28600,6 +27858,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -28612,8 +27871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -28696,4 +27955,312 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>797</v>
+      </c>
+      <c r="B17" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>798</v>
+      </c>
+      <c r="B18" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>799</v>
+      </c>
+      <c r="B19" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>800</v>
+      </c>
+      <c r="B20" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>801</v>
+      </c>
+      <c r="B21" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>797</v>
+      </c>
+      <c r="B26" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>798</v>
+      </c>
+      <c r="B27" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>799</v>
+      </c>
+      <c r="B28" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>802</v>
+      </c>
+      <c r="B29" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>801</v>
+      </c>
+      <c r="B30" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>797</v>
+      </c>
+      <c r="B35" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>798</v>
+      </c>
+      <c r="B36" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>799</v>
+      </c>
+      <c r="B37" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>802</v>
+      </c>
+      <c r="B38" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>801</v>
+      </c>
+      <c r="B39" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>